--- a/DS_ALGO_CRACKINTERVIEW.xlsx
+++ b/DS_ALGO_CRACKINTERVIEW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anirudh s Nayak\Documents\Anirudh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anirudh s Nayak\Documents\GitHub\training_programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBCBF0-4532-4599-9238-261E8F7A6519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC884A-D7AC-4EC2-9471-D993F2BFCB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1650,12 +1650,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1671,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,6 +1709,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2015,7 +2033,7 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2063,7 +2081,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2074,7 +2092,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2085,7 +2103,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2096,7 +2114,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2107,7 +2125,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
